--- a/Setor Siderúrgico Nacional/2 Entrega - Cliclo 2/Passo 03 e 04 - Coleta e limpeza dos dados/Limpeza e Modelagem/Limpeza e modelagem Selic.xlsx
+++ b/Setor Siderúrgico Nacional/2 Entrega - Cliclo 2/Passo 03 e 04 - Coleta e limpeza dos dados/Limpeza e Modelagem/Limpeza e modelagem Selic.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\OneDrive\Documents\GitHub\Insights\Setor Siderúrgico Nacional\2 Entrega - Cliclo 2\Passo 03 e 04 - Coleta e limpeza dos dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manda\OneDrive\Documents\GitHub\Insights\Setor Siderúrgico Nacional\2 Entrega - Cliclo 2\Passo 03 e 04 - Coleta e limpeza dos dados\Limpeza e Modelagem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6720EF4C-67ED-4EA1-BA6E-3E78E8752F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386BCF04-9889-4B5D-A44E-09280F7064FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cotacao Selic 2000 ~ 2022 ok" sheetId="1" r:id="rId1"/>
+    <sheet name="Cotacao Selic 2000 ~ 2022 o (2)" sheetId="3" state="hidden" r:id="rId1"/>
     <sheet name="Modelagem vertical" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -65,7 +75,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,9 +553,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -900,11 +909,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87981B82-207C-4771-96CC-79D349E2C1CA}">
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:I6"/>
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1890,2784 +1899,4644 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B283"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D273"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
+      <selection activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>CONCATENATE(B1,"-",C1)</f>
+        <v>1-2000</v>
+      </c>
+      <c r="B1">
         <v>1</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>2000</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D1">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A65" si="0">CONCATENATE(B2,"-",C2)</f>
+        <v>2-2000</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="B2">
-        <f>B1</f>
+      <c r="C2">
+        <f>C1</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="D2">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>3-2000</v>
+      </c>
+      <c r="B3">
         <v>3</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B12" si="0">B2</f>
+      <c r="C3">
+        <f t="shared" ref="C3:C12" si="1">C2</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="D3">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>4-2000</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="D4">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
         <f t="shared" si="0"/>
+        <v>5-2000</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5">
+      <c r="D5">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
         <f t="shared" si="0"/>
+        <v>6-2000</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6">
+      <c r="D6">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
         <f t="shared" si="0"/>
+        <v>7-2000</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7">
+      <c r="D7">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
         <f t="shared" si="0"/>
+        <v>8-2000</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8">
+      <c r="D8">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
         <f t="shared" si="0"/>
+        <v>9-2000</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9">
+      <c r="D9">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
         <f t="shared" si="0"/>
+        <v>10-2000</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10">
+      <c r="D10">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
         <f t="shared" si="0"/>
+        <v>11-2000</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11">
+      <c r="D11">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
         <f t="shared" si="0"/>
+        <v>12-2000</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
         <v>2000</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12">
+      <c r="D12">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+        <v>1-2001</v>
+      </c>
+      <c r="B13">
         <v>1</v>
       </c>
-      <c r="B13">
-        <f>B12+1</f>
+      <c r="C13">
+        <f>C12+1</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <f>A2</f>
+      <c r="D13">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>2-2001</v>
+      </c>
+      <c r="B14">
+        <f>B2</f>
         <v>2</v>
       </c>
-      <c r="B14">
-        <f>B13</f>
+      <c r="C14">
+        <f>C13</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <f t="shared" ref="A15:B24" si="1">A3</f>
+      <c r="D14">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>3-2001</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ref="B15:B24" si="2">B3</f>
         <v>3</v>
       </c>
-      <c r="B15">
-        <f t="shared" ref="B15:B24" si="2">B14</f>
+      <c r="C15">
+        <f t="shared" ref="C15:C24" si="3">C14</f>
         <v>2001</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
+      <c r="D15">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>4-2001</v>
       </c>
       <c r="B16">
         <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <f t="shared" si="1"/>
-        <v>5</v>
+      <c r="D16">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>5-2001</v>
       </c>
       <c r="B17">
         <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <f t="shared" si="1"/>
-        <v>6</v>
+      <c r="D17">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>6-2001</v>
       </c>
       <c r="B18">
         <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <f t="shared" si="1"/>
-        <v>7</v>
+      <c r="D18">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>7-2001</v>
       </c>
       <c r="B19">
         <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="D19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>8-2001</v>
       </c>
       <c r="B20">
         <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <f t="shared" si="1"/>
-        <v>9</v>
+      <c r="D20">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>9-2001</v>
       </c>
       <c r="B21">
         <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f>A10</f>
+      <c r="D21">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>10-2001</v>
+      </c>
+      <c r="B22">
+        <f>B10</f>
         <v>10</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="2"/>
+      <c r="C22">
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <f t="shared" si="1"/>
-        <v>11</v>
+      <c r="D22">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>11-2001</v>
       </c>
       <c r="B23">
         <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+      <c r="D23">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>12-2001</v>
       </c>
       <c r="B24">
         <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="3"/>
         <v>2001</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <f>A13</f>
+      <c r="D24">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>1-2002</v>
+      </c>
+      <c r="B25">
+        <f>B13</f>
         <v>1</v>
       </c>
-      <c r="B25">
-        <f>B24+1</f>
+      <c r="C25">
+        <f>C24+1</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <f t="shared" ref="A26:A89" si="3">A14</f>
+      <c r="D25">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>2-2002</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ref="B26:B89" si="4">B14</f>
         <v>2</v>
       </c>
-      <c r="B26">
-        <f>B25</f>
+      <c r="C26">
+        <f>C25</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <f t="shared" si="3"/>
+      <c r="D26">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>3-2002</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B27">
-        <f t="shared" ref="B27:B37" si="4">B26</f>
+      <c r="C27">
+        <f t="shared" ref="C27:C36" si="5">C26</f>
         <v>2002</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <f t="shared" si="3"/>
-        <v>4</v>
+      <c r="D27">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>4-2002</v>
       </c>
       <c r="B28">
         <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="5"/>
         <v>2002</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f t="shared" si="3"/>
-        <v>5</v>
+      <c r="D28">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>5-2002</v>
       </c>
       <c r="B29">
         <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="5"/>
         <v>2002</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <f t="shared" si="3"/>
-        <v>6</v>
+      <c r="D29">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>6-2002</v>
       </c>
       <c r="B30">
         <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="5"/>
         <v>2002</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <f t="shared" si="3"/>
-        <v>7</v>
+      <c r="D30">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>7-2002</v>
       </c>
       <c r="B31">
         <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="5"/>
         <v>2002</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <f t="shared" si="3"/>
-        <v>8</v>
+      <c r="D31">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>8-2002</v>
       </c>
       <c r="B32">
         <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="5"/>
         <v>2002</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <f t="shared" si="3"/>
-        <v>9</v>
+      <c r="D32">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>9-2002</v>
       </c>
       <c r="B33">
         <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="5"/>
         <v>2002</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <f t="shared" si="3"/>
-        <v>10</v>
+      <c r="D33">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>10-2002</v>
       </c>
       <c r="B34">
         <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="5"/>
         <v>2002</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <f t="shared" si="3"/>
-        <v>11</v>
+      <c r="D34">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>11-2002</v>
       </c>
       <c r="B35">
         <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="5"/>
         <v>2002</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <f t="shared" si="3"/>
-        <v>12</v>
+      <c r="D35">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>12-2002</v>
       </c>
       <c r="B36">
         <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="5"/>
         <v>2002</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <f t="shared" si="3"/>
+      <c r="D36">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>1-2003</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B37">
-        <f>B36+1</f>
+      <c r="C37">
+        <f>C36+1</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <f t="shared" si="3"/>
+      <c r="D37">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>2-2003</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B38">
-        <f>B37</f>
+      <c r="C38">
+        <f>C37</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <f t="shared" si="3"/>
+      <c r="D38">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>3-2003</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B39">
-        <f t="shared" ref="B39:B60" si="5">B38</f>
+      <c r="C39">
+        <f t="shared" ref="C39:C60" si="6">C38</f>
         <v>2003</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <f t="shared" si="3"/>
+      <c r="D39">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>4-2003</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B40">
-        <f t="shared" si="5"/>
+      <c r="C40">
+        <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <f t="shared" si="3"/>
+      <c r="D40">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>5-2003</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B41">
-        <f t="shared" si="5"/>
+      <c r="C41">
+        <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <f t="shared" si="3"/>
+      <c r="D41">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>6-2003</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B42">
-        <f t="shared" si="5"/>
+      <c r="C42">
+        <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <f t="shared" si="3"/>
+      <c r="D42">
+        <v>1.86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>7-2003</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B43">
-        <f t="shared" si="5"/>
+      <c r="C43">
+        <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <f t="shared" si="3"/>
+      <c r="D43">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>8-2003</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B44">
-        <f t="shared" si="5"/>
+      <c r="C44">
+        <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <f t="shared" si="3"/>
+      <c r="D44">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>9-2003</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B45">
-        <f t="shared" si="5"/>
+      <c r="C45">
+        <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <f t="shared" si="3"/>
+      <c r="D45">
+        <v>1.68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>10-2003</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B46">
-        <f t="shared" si="5"/>
+      <c r="C46">
+        <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <f t="shared" si="3"/>
+      <c r="D46">
+        <v>1.64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>11-2003</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B47">
-        <f t="shared" si="5"/>
+      <c r="C47">
+        <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <f t="shared" si="3"/>
+      <c r="D47">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>12-2003</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B48">
-        <f t="shared" si="5"/>
+      <c r="C48">
+        <f t="shared" si="6"/>
         <v>2003</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
-        <f t="shared" si="3"/>
+      <c r="D48">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>1-2004</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B49">
-        <f>B48+1</f>
+      <c r="C49">
+        <f>C48+1</f>
         <v>2004</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <f t="shared" si="3"/>
+      <c r="D49">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>2-2004</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B50">
-        <f>B49</f>
+      <c r="C50">
+        <f>C49</f>
         <v>2004</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
-        <f t="shared" si="3"/>
+      <c r="D50">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>3-2004</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B51">
-        <f t="shared" si="5"/>
+      <c r="C51">
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
-        <f t="shared" si="3"/>
+      <c r="D51">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>4-2004</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B52">
-        <f t="shared" si="5"/>
+      <c r="C52">
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <f t="shared" si="3"/>
+      <c r="D52">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>5-2004</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B53">
-        <f t="shared" si="5"/>
+      <c r="C53">
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
-        <f t="shared" si="3"/>
+      <c r="D53">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>6-2004</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B54">
-        <f t="shared" si="5"/>
+      <c r="C54">
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <f t="shared" si="3"/>
+      <c r="D54">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>7-2004</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B55">
-        <f t="shared" si="5"/>
+      <c r="C55">
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <f t="shared" si="3"/>
+      <c r="D55">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>8-2004</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B56">
-        <f t="shared" si="5"/>
+      <c r="C56">
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
-        <f t="shared" si="3"/>
+      <c r="D56">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>9-2004</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B57">
-        <f t="shared" si="5"/>
+      <c r="C57">
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <f t="shared" si="3"/>
+      <c r="D57">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>10-2004</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B58">
-        <f t="shared" si="5"/>
+      <c r="C58">
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
-        <f t="shared" si="3"/>
+      <c r="D58">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>11-2004</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B59">
-        <f t="shared" si="5"/>
+      <c r="C59">
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
-        <f t="shared" si="3"/>
+      <c r="D59">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>12-2004</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B60">
-        <f t="shared" si="5"/>
+      <c r="C60">
+        <f t="shared" si="6"/>
         <v>2004</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <f t="shared" si="3"/>
+      <c r="D60">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>1-2005</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B61">
-        <f>B60+1</f>
+      <c r="C61">
+        <f>C60+1</f>
         <v>2005</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <f t="shared" si="3"/>
+      <c r="D61">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>2-2005</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B62">
-        <f>B61</f>
+      <c r="C62">
+        <f>C61</f>
         <v>2005</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <f t="shared" si="3"/>
+      <c r="D62">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>3-2005</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B63">
-        <f t="shared" ref="B63:B72" si="6">B62</f>
+      <c r="C63">
+        <f t="shared" ref="C63:C72" si="7">C62</f>
         <v>2005</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <f t="shared" si="3"/>
+      <c r="D63">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>4-2005</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B64">
-        <f t="shared" si="6"/>
+      <c r="C64">
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <f t="shared" si="3"/>
+      <c r="D64">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>5-2005</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B65">
-        <f t="shared" si="6"/>
+      <c r="C65">
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <f t="shared" si="3"/>
+      <c r="D65">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" ref="A66:A129" si="8">CONCATENATE(B66,"-",C66)</f>
+        <v>6-2005</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B66">
-        <f t="shared" si="6"/>
+      <c r="C66">
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <f t="shared" si="3"/>
+      <c r="D66">
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="8"/>
+        <v>7-2005</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B67">
-        <f t="shared" si="6"/>
+      <c r="C67">
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <f t="shared" si="3"/>
+      <c r="D67">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="8"/>
+        <v>8-2005</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B68">
-        <f t="shared" si="6"/>
+      <c r="C68">
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <f t="shared" si="3"/>
+      <c r="D68">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="8"/>
+        <v>9-2005</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B69">
-        <f t="shared" si="6"/>
+      <c r="C69">
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <f t="shared" si="3"/>
+      <c r="D69">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="8"/>
+        <v>10-2005</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B70">
-        <f t="shared" si="6"/>
+      <c r="C70">
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <f t="shared" si="3"/>
+      <c r="D70">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="8"/>
+        <v>11-2005</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B71">
-        <f t="shared" si="6"/>
+      <c r="C71">
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <f t="shared" si="3"/>
+      <c r="D71">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="8"/>
+        <v>12-2005</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B72">
-        <f t="shared" si="6"/>
+      <c r="C72">
+        <f t="shared" si="7"/>
         <v>2005</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
-        <f t="shared" si="3"/>
+      <c r="D72">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2006</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B73">
-        <f>B72+1</f>
+      <c r="C73">
+        <f>C72+1</f>
         <v>2006</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
-        <f t="shared" si="3"/>
+      <c r="D73">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2006</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B74">
-        <f>B73</f>
+      <c r="C74">
+        <f>C73</f>
         <v>2006</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
-        <f t="shared" si="3"/>
+      <c r="D74">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="8"/>
+        <v>3-2006</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B75">
-        <f t="shared" ref="B75:B84" si="7">B74</f>
+      <c r="C75">
+        <f t="shared" ref="C75:C84" si="9">C74</f>
         <v>2006</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
-        <f t="shared" si="3"/>
+      <c r="D75">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="8"/>
+        <v>4-2006</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B76">
-        <f t="shared" si="7"/>
+      <c r="C76">
+        <f t="shared" si="9"/>
         <v>2006</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
-        <f t="shared" si="3"/>
+      <c r="D76">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="8"/>
+        <v>5-2006</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="B77">
-        <f t="shared" si="7"/>
+      <c r="C77">
+        <f t="shared" si="9"/>
         <v>2006</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
-        <f t="shared" si="3"/>
+      <c r="D77">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="8"/>
+        <v>6-2006</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="B78">
-        <f t="shared" si="7"/>
+      <c r="C78">
+        <f t="shared" si="9"/>
         <v>2006</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
-        <f t="shared" si="3"/>
+      <c r="D78">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="8"/>
+        <v>7-2006</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="B79">
-        <f t="shared" si="7"/>
+      <c r="C79">
+        <f t="shared" si="9"/>
         <v>2006</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
-        <f t="shared" si="3"/>
+      <c r="D79">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="8"/>
+        <v>8-2006</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="B80">
-        <f t="shared" si="7"/>
+      <c r="C80">
+        <f t="shared" si="9"/>
         <v>2006</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
-        <f t="shared" si="3"/>
+      <c r="D80">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="8"/>
+        <v>9-2006</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="B81">
-        <f t="shared" si="7"/>
+      <c r="C81">
+        <f t="shared" si="9"/>
         <v>2006</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
-        <f t="shared" si="3"/>
+      <c r="D81">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="8"/>
+        <v>10-2006</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="B82">
-        <f t="shared" si="7"/>
+      <c r="C82">
+        <f t="shared" si="9"/>
         <v>2006</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
-        <f t="shared" si="3"/>
+      <c r="D82">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="8"/>
+        <v>11-2006</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
-      <c r="B83">
-        <f t="shared" si="7"/>
+      <c r="C83">
+        <f t="shared" si="9"/>
         <v>2006</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
-        <f t="shared" si="3"/>
+      <c r="D83">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="8"/>
+        <v>12-2006</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
-      <c r="B84">
-        <f t="shared" si="7"/>
+      <c r="C84">
+        <f t="shared" si="9"/>
         <v>2006</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
-        <f t="shared" si="3"/>
+      <c r="D84">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2007</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="B85">
-        <f>B84+1</f>
+      <c r="C85">
+        <f>C84+1</f>
         <v>2007</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
-        <f t="shared" si="3"/>
+      <c r="D85">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2007</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="B86">
-        <f>B85</f>
+      <c r="C86">
+        <f>C85</f>
         <v>2007</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
-        <f t="shared" si="3"/>
+      <c r="D86">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="8"/>
+        <v>3-2007</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="B87">
-        <f t="shared" ref="B87:B96" si="8">B86</f>
+      <c r="C87">
+        <f t="shared" ref="C87:C96" si="10">C86</f>
         <v>2007</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
-        <f t="shared" si="3"/>
+      <c r="D87">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="8"/>
+        <v>4-2007</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="B88">
+      <c r="C88">
+        <f t="shared" si="10"/>
+        <v>2007</v>
+      </c>
+      <c r="D88">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
         <f t="shared" si="8"/>
+        <v>5-2007</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="10"/>
         <v>2007</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
-        <f t="shared" si="3"/>
+      <c r="D89">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="8"/>
+        <v>6-2007</v>
+      </c>
+      <c r="B90">
+        <f t="shared" ref="B90:B153" si="11">B78</f>
+        <v>6</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="10"/>
+        <v>2007</v>
+      </c>
+      <c r="D90">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="8"/>
+        <v>7-2007</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="10"/>
+        <v>2007</v>
+      </c>
+      <c r="D91">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="8"/>
+        <v>8-2007</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="10"/>
+        <v>2007</v>
+      </c>
+      <c r="D92">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" si="8"/>
+        <v>9-2007</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="10"/>
+        <v>2007</v>
+      </c>
+      <c r="D93">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="8"/>
+        <v>10-2007</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="10"/>
+        <v>2007</v>
+      </c>
+      <c r="D94">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" si="8"/>
+        <v>11-2007</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="10"/>
+        <v>2007</v>
+      </c>
+      <c r="D95">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="8"/>
+        <v>12-2007</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="10"/>
+        <v>2007</v>
+      </c>
+      <c r="D96">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2008</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <f>C96+1</f>
+        <v>2008</v>
+      </c>
+      <c r="D97">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2008</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <f>C97</f>
+        <v>2008</v>
+      </c>
+      <c r="D98">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="8"/>
+        <v>3-2008</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ref="C99:C108" si="12">C98</f>
+        <v>2008</v>
+      </c>
+      <c r="D99">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="8"/>
+        <v>4-2008</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="12"/>
+        <v>2008</v>
+      </c>
+      <c r="D100">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="8"/>
+        <v>5-2008</v>
+      </c>
+      <c r="B101">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="B89">
+      <c r="C101">
+        <f t="shared" si="12"/>
+        <v>2008</v>
+      </c>
+      <c r="D101">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
         <f t="shared" si="8"/>
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
-        <f t="shared" ref="A90:A153" si="9">A78</f>
+        <v>6-2008</v>
+      </c>
+      <c r="B102">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="B90">
+      <c r="C102">
+        <f t="shared" si="12"/>
+        <v>2008</v>
+      </c>
+      <c r="D102">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
         <f t="shared" si="8"/>
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
-        <f t="shared" si="9"/>
+        <v>7-2008</v>
+      </c>
+      <c r="B103">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="B91">
+      <c r="C103">
+        <f t="shared" si="12"/>
+        <v>2008</v>
+      </c>
+      <c r="D103">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
         <f t="shared" si="8"/>
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
-        <f t="shared" si="9"/>
+        <v>8-2008</v>
+      </c>
+      <c r="B104">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="B92">
+      <c r="C104">
+        <f t="shared" si="12"/>
+        <v>2008</v>
+      </c>
+      <c r="D104">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
         <f t="shared" si="8"/>
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
-        <f t="shared" si="9"/>
+        <v>9-2008</v>
+      </c>
+      <c r="B105">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="B93">
+      <c r="C105">
+        <f t="shared" si="12"/>
+        <v>2008</v>
+      </c>
+      <c r="D105">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
         <f t="shared" si="8"/>
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
-        <f t="shared" si="9"/>
+        <v>10-2008</v>
+      </c>
+      <c r="B106">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="B94">
+      <c r="C106">
+        <f t="shared" si="12"/>
+        <v>2008</v>
+      </c>
+      <c r="D106">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
         <f t="shared" si="8"/>
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
-        <f t="shared" si="9"/>
+        <v>11-2008</v>
+      </c>
+      <c r="B107">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="B95">
+      <c r="C107">
+        <f t="shared" si="12"/>
+        <v>2008</v>
+      </c>
+      <c r="D107">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
         <f t="shared" si="8"/>
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
-        <f t="shared" si="9"/>
+        <v>12-2008</v>
+      </c>
+      <c r="B108">
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B96">
+      <c r="C108">
+        <f t="shared" si="12"/>
+        <v>2008</v>
+      </c>
+      <c r="D108">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
         <f t="shared" si="8"/>
-        <v>2007</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
-        <f t="shared" si="9"/>
+        <v>1-2009</v>
+      </c>
+      <c r="B109">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="B97">
-        <f>B96+1</f>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
-        <f t="shared" si="9"/>
+      <c r="C109">
+        <f>C108+1</f>
+        <v>2009</v>
+      </c>
+      <c r="D109">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2009</v>
+      </c>
+      <c r="B110">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="B98">
-        <f>B97</f>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
-        <f t="shared" si="9"/>
+      <c r="C110">
+        <f>C109</f>
+        <v>2009</v>
+      </c>
+      <c r="D110">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="8"/>
+        <v>3-2009</v>
+      </c>
+      <c r="B111">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="B99">
-        <f t="shared" ref="B99:B108" si="10">B98</f>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="B100">
-        <f t="shared" si="10"/>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="B101">
-        <f t="shared" si="10"/>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="B102">
-        <f t="shared" si="10"/>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="B103">
-        <f t="shared" si="10"/>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="B104">
-        <f t="shared" si="10"/>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="B105">
-        <f t="shared" si="10"/>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
-      </c>
-      <c r="B106">
-        <f t="shared" si="10"/>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="B107">
-        <f t="shared" si="10"/>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
-        <f t="shared" si="9"/>
-        <v>12</v>
-      </c>
-      <c r="B108">
-        <f t="shared" si="10"/>
-        <v>2008</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="B109">
-        <f>B108+1</f>
+      <c r="C111">
+        <f t="shared" ref="C111:C120" si="13">C110</f>
         <v>2009</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="B110">
-        <f>B109</f>
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="B111">
-        <f t="shared" ref="B111:B120" si="11">B110</f>
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
-        <f t="shared" si="9"/>
-        <v>4</v>
+      <c r="D111">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="8"/>
+        <v>4-2009</v>
       </c>
       <c r="B112">
         <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
+      <c r="D112">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="8"/>
+        <v>5-2009</v>
       </c>
       <c r="B113">
         <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
-        <f t="shared" si="9"/>
-        <v>6</v>
+      <c r="D113">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="8"/>
+        <v>6-2009</v>
       </c>
       <c r="B114">
         <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
-        <f t="shared" si="9"/>
-        <v>7</v>
+      <c r="D114">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="8"/>
+        <v>7-2009</v>
       </c>
       <c r="B115">
         <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
-        <f t="shared" si="9"/>
-        <v>8</v>
+      <c r="D115">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f t="shared" si="8"/>
+        <v>8-2009</v>
       </c>
       <c r="B116">
         <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
-        <f t="shared" si="9"/>
-        <v>9</v>
+      <c r="D116">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f t="shared" si="8"/>
+        <v>9-2009</v>
       </c>
       <c r="B117">
         <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
-        <f t="shared" si="9"/>
-        <v>10</v>
+      <c r="D117">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f t="shared" si="8"/>
+        <v>10-2009</v>
       </c>
       <c r="B118">
         <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
-        <f t="shared" si="9"/>
-        <v>11</v>
+      <c r="D118">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f t="shared" si="8"/>
+        <v>11-2009</v>
       </c>
       <c r="B119">
         <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
-        <f t="shared" si="9"/>
-        <v>12</v>
+      <c r="D119">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f t="shared" si="8"/>
+        <v>12-2009</v>
       </c>
       <c r="B120">
         <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="13"/>
         <v>2009</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
-        <f t="shared" si="9"/>
+      <c r="D120">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f t="shared" si="8"/>
+        <v>1-2010</v>
+      </c>
+      <c r="B121">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="B121">
-        <f>B120+1</f>
+      <c r="C121">
+        <f>C120+1</f>
         <v>2010</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
-        <f t="shared" si="9"/>
+      <c r="D121">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f t="shared" si="8"/>
+        <v>2-2010</v>
+      </c>
+      <c r="B122">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="B122">
-        <f>B121</f>
+      <c r="C122">
+        <f>C121</f>
         <v>2010</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
-        <f t="shared" si="9"/>
+      <c r="D122">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f t="shared" si="8"/>
+        <v>3-2010</v>
+      </c>
+      <c r="B123">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="B123">
-        <f t="shared" ref="B123:B132" si="12">B122</f>
+      <c r="C123">
+        <f t="shared" ref="C123:C132" si="14">C122</f>
         <v>2010</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
-        <f t="shared" si="9"/>
+      <c r="D123">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" si="8"/>
+        <v>4-2010</v>
+      </c>
+      <c r="B124">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="B124">
-        <f t="shared" si="12"/>
+      <c r="C124">
+        <f t="shared" si="14"/>
         <v>2010</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
-        <f t="shared" si="9"/>
+      <c r="D124">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" si="8"/>
+        <v>5-2010</v>
+      </c>
+      <c r="B125">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="B125">
-        <f t="shared" si="12"/>
+      <c r="C125">
+        <f t="shared" si="14"/>
         <v>2010</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
-        <f t="shared" si="9"/>
+      <c r="D125">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" si="8"/>
+        <v>6-2010</v>
+      </c>
+      <c r="B126">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="B126">
-        <f t="shared" si="12"/>
+      <c r="C126">
+        <f t="shared" si="14"/>
         <v>2010</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
-        <f t="shared" si="9"/>
+      <c r="D126">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" si="8"/>
+        <v>7-2010</v>
+      </c>
+      <c r="B127">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="B127">
-        <f t="shared" si="12"/>
+      <c r="C127">
+        <f t="shared" si="14"/>
         <v>2010</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
-        <f t="shared" si="9"/>
+      <c r="D127">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" si="8"/>
+        <v>8-2010</v>
+      </c>
+      <c r="B128">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="B128">
-        <f t="shared" si="12"/>
+      <c r="C128">
+        <f t="shared" si="14"/>
         <v>2010</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
-        <f t="shared" si="9"/>
+      <c r="D128">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f t="shared" si="8"/>
+        <v>9-2010</v>
+      </c>
+      <c r="B129">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="B129">
-        <f t="shared" si="12"/>
+      <c r="C129">
+        <f t="shared" si="14"/>
         <v>2010</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
-        <f t="shared" si="9"/>
+      <c r="D129">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" ref="A130:A193" si="15">CONCATENATE(B130,"-",C130)</f>
+        <v>10-2010</v>
+      </c>
+      <c r="B130">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="B130">
-        <f t="shared" si="12"/>
+      <c r="C130">
+        <f t="shared" si="14"/>
         <v>2010</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
-        <f t="shared" si="9"/>
+      <c r="D130">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" si="15"/>
+        <v>11-2010</v>
+      </c>
+      <c r="B131">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="B131">
-        <f t="shared" si="12"/>
+      <c r="C131">
+        <f t="shared" si="14"/>
         <v>2010</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
-        <f t="shared" si="9"/>
+      <c r="D131">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" si="15"/>
+        <v>12-2010</v>
+      </c>
+      <c r="B132">
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B132">
-        <f t="shared" si="12"/>
+      <c r="C132">
+        <f t="shared" si="14"/>
         <v>2010</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
-        <f t="shared" si="9"/>
+      <c r="D132">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" si="15"/>
+        <v>1-2011</v>
+      </c>
+      <c r="B133">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="B133">
-        <f>B132+1</f>
+      <c r="C133">
+        <f>C132+1</f>
         <v>2011</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
-        <f t="shared" si="9"/>
+      <c r="D133">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f t="shared" si="15"/>
+        <v>2-2011</v>
+      </c>
+      <c r="B134">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="B134">
-        <f>B133</f>
+      <c r="C134">
+        <f>C133</f>
         <v>2011</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
-        <f t="shared" si="9"/>
+      <c r="D134">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f t="shared" si="15"/>
+        <v>3-2011</v>
+      </c>
+      <c r="B135">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="B135">
-        <f t="shared" ref="B135:B144" si="13">B134</f>
+      <c r="C135">
+        <f t="shared" ref="C135:C144" si="16">C134</f>
         <v>2011</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
-        <f t="shared" si="9"/>
+      <c r="D135">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f t="shared" si="15"/>
+        <v>4-2011</v>
+      </c>
+      <c r="B136">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="B136">
-        <f t="shared" si="13"/>
+      <c r="C136">
+        <f t="shared" si="16"/>
         <v>2011</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
-        <f t="shared" si="9"/>
+      <c r="D136">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f t="shared" si="15"/>
+        <v>5-2011</v>
+      </c>
+      <c r="B137">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="B137">
-        <f t="shared" si="13"/>
+      <c r="C137">
+        <f t="shared" si="16"/>
         <v>2011</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
-        <f t="shared" si="9"/>
+      <c r="D137">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f t="shared" si="15"/>
+        <v>6-2011</v>
+      </c>
+      <c r="B138">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="B138">
-        <f t="shared" si="13"/>
+      <c r="C138">
+        <f t="shared" si="16"/>
         <v>2011</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
-        <f t="shared" si="9"/>
+      <c r="D138">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f t="shared" si="15"/>
+        <v>7-2011</v>
+      </c>
+      <c r="B139">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="B139">
-        <f t="shared" si="13"/>
+      <c r="C139">
+        <f t="shared" si="16"/>
         <v>2011</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
-        <f t="shared" si="9"/>
+      <c r="D139">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f t="shared" si="15"/>
+        <v>8-2011</v>
+      </c>
+      <c r="B140">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="B140">
-        <f t="shared" si="13"/>
+      <c r="C140">
+        <f t="shared" si="16"/>
         <v>2011</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
-        <f t="shared" si="9"/>
+      <c r="D140">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f t="shared" si="15"/>
+        <v>9-2011</v>
+      </c>
+      <c r="B141">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="B141">
-        <f t="shared" si="13"/>
+      <c r="C141">
+        <f t="shared" si="16"/>
         <v>2011</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
-        <f t="shared" si="9"/>
+      <c r="D141">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f t="shared" si="15"/>
+        <v>10-2011</v>
+      </c>
+      <c r="B142">
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
-      <c r="B142">
-        <f t="shared" si="13"/>
+      <c r="C142">
+        <f t="shared" si="16"/>
         <v>2011</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
-        <f t="shared" si="9"/>
+      <c r="D142">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f t="shared" si="15"/>
+        <v>11-2011</v>
+      </c>
+      <c r="B143">
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
-      <c r="B143">
-        <f t="shared" si="13"/>
+      <c r="C143">
+        <f t="shared" si="16"/>
         <v>2011</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
-        <f t="shared" si="9"/>
+      <c r="D143">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f t="shared" si="15"/>
+        <v>12-2011</v>
+      </c>
+      <c r="B144">
+        <f t="shared" si="11"/>
         <v>12</v>
       </c>
-      <c r="B144">
-        <f t="shared" si="13"/>
+      <c r="C144">
+        <f t="shared" si="16"/>
         <v>2011</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
-        <f t="shared" si="9"/>
+      <c r="D144">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f t="shared" si="15"/>
+        <v>1-2012</v>
+      </c>
+      <c r="B145">
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="B145">
-        <f>B144+1</f>
+      <c r="C145">
+        <f>C144+1</f>
         <v>2012</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
-        <f t="shared" si="9"/>
+      <c r="D145">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f t="shared" si="15"/>
+        <v>2-2012</v>
+      </c>
+      <c r="B146">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
-      <c r="B146">
-        <f>B145</f>
+      <c r="C146">
+        <f>C145</f>
         <v>2012</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
-        <f t="shared" si="9"/>
+      <c r="D146">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f t="shared" si="15"/>
+        <v>3-2012</v>
+      </c>
+      <c r="B147">
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="B147">
-        <f t="shared" ref="B147:B156" si="14">B146</f>
+      <c r="C147">
+        <f t="shared" ref="C147:C156" si="17">C146</f>
         <v>2012</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
-        <f t="shared" si="9"/>
+      <c r="D147">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="str">
+        <f t="shared" si="15"/>
+        <v>4-2012</v>
+      </c>
+      <c r="B148">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="B148">
-        <f t="shared" si="14"/>
+      <c r="C148">
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
-        <f t="shared" si="9"/>
+      <c r="D148">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" t="str">
+        <f t="shared" si="15"/>
+        <v>5-2012</v>
+      </c>
+      <c r="B149">
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
-      <c r="B149">
-        <f t="shared" si="14"/>
+      <c r="C149">
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
-        <f t="shared" si="9"/>
+      <c r="D149">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" t="str">
+        <f t="shared" si="15"/>
+        <v>6-2012</v>
+      </c>
+      <c r="B150">
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
-      <c r="B150">
-        <f t="shared" si="14"/>
+      <c r="C150">
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
-        <f t="shared" si="9"/>
+      <c r="D150">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" t="str">
+        <f t="shared" si="15"/>
+        <v>7-2012</v>
+      </c>
+      <c r="B151">
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
-      <c r="B151">
-        <f t="shared" si="14"/>
+      <c r="C151">
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
-        <f t="shared" si="9"/>
+      <c r="D151">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" t="str">
+        <f t="shared" si="15"/>
+        <v>8-2012</v>
+      </c>
+      <c r="B152">
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
-      <c r="B152">
-        <f t="shared" si="14"/>
+      <c r="C152">
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
-        <f t="shared" si="9"/>
+      <c r="D152">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" t="str">
+        <f t="shared" si="15"/>
+        <v>9-2012</v>
+      </c>
+      <c r="B153">
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
-      <c r="B153">
-        <f t="shared" si="14"/>
+      <c r="C153">
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
-        <f t="shared" ref="A154:A217" si="15">A142</f>
+      <c r="D153">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" t="str">
+        <f t="shared" si="15"/>
+        <v>10-2012</v>
+      </c>
+      <c r="B154">
+        <f t="shared" ref="B154:B217" si="18">B142</f>
         <v>10</v>
       </c>
-      <c r="B154">
-        <f t="shared" si="14"/>
+      <c r="C154">
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+      <c r="D154">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" t="str">
         <f t="shared" si="15"/>
+        <v>11-2012</v>
+      </c>
+      <c r="B155">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="B155">
-        <f t="shared" si="14"/>
+      <c r="C155">
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+      <c r="D155">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" t="str">
         <f t="shared" si="15"/>
+        <v>12-2012</v>
+      </c>
+      <c r="B156">
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="B156">
-        <f t="shared" si="14"/>
+      <c r="C156">
+        <f t="shared" si="17"/>
         <v>2012</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+      <c r="D156">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" t="str">
         <f t="shared" si="15"/>
+        <v>1-2013</v>
+      </c>
+      <c r="B157">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="B157">
-        <f>B156+1</f>
+      <c r="C157">
+        <f>C156+1</f>
         <v>2013</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+      <c r="D157">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" t="str">
         <f t="shared" si="15"/>
+        <v>2-2013</v>
+      </c>
+      <c r="B158">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="B158">
-        <f>B157</f>
+      <c r="C158">
+        <f>C157</f>
         <v>2013</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+      <c r="D158">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" t="str">
         <f t="shared" si="15"/>
+        <v>3-2013</v>
+      </c>
+      <c r="B159">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="B159">
-        <f t="shared" ref="B159:B168" si="16">B158</f>
+      <c r="C159">
+        <f t="shared" ref="C159:C168" si="19">C158</f>
         <v>2013</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+      <c r="D159">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" t="str">
         <f t="shared" si="15"/>
+        <v>4-2013</v>
+      </c>
+      <c r="B160">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="B160">
-        <f t="shared" si="16"/>
+      <c r="C160">
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+      <c r="D160">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" t="str">
         <f t="shared" si="15"/>
+        <v>5-2013</v>
+      </c>
+      <c r="B161">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="B161">
-        <f t="shared" si="16"/>
+      <c r="C161">
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+      <c r="D161">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" t="str">
         <f t="shared" si="15"/>
+        <v>6-2013</v>
+      </c>
+      <c r="B162">
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="B162">
-        <f t="shared" si="16"/>
+      <c r="C162">
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+      <c r="D162">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" t="str">
         <f t="shared" si="15"/>
+        <v>7-2013</v>
+      </c>
+      <c r="B163">
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
-      <c r="B163">
-        <f t="shared" si="16"/>
+      <c r="C163">
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+      <c r="D163">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" t="str">
         <f t="shared" si="15"/>
+        <v>8-2013</v>
+      </c>
+      <c r="B164">
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="B164">
-        <f t="shared" si="16"/>
+      <c r="C164">
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+      <c r="D164">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" t="str">
         <f t="shared" si="15"/>
+        <v>9-2013</v>
+      </c>
+      <c r="B165">
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
-      <c r="B165">
-        <f t="shared" si="16"/>
+      <c r="C165">
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+      <c r="D165">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" t="str">
         <f t="shared" si="15"/>
+        <v>10-2013</v>
+      </c>
+      <c r="B166">
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="B166">
-        <f t="shared" si="16"/>
+      <c r="C166">
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+      <c r="D166">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" t="str">
         <f t="shared" si="15"/>
+        <v>11-2013</v>
+      </c>
+      <c r="B167">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="B167">
-        <f t="shared" si="16"/>
+      <c r="C167">
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+      <c r="D167">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" t="str">
         <f t="shared" si="15"/>
+        <v>12-2013</v>
+      </c>
+      <c r="B168">
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="B168">
-        <f t="shared" si="16"/>
+      <c r="C168">
+        <f t="shared" si="19"/>
         <v>2013</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+      <c r="D168">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" t="str">
         <f t="shared" si="15"/>
+        <v>1-2014</v>
+      </c>
+      <c r="B169">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="B169">
-        <f>B168+1</f>
+      <c r="C169">
+        <f>C168+1</f>
         <v>2014</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+      <c r="D169">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" t="str">
         <f t="shared" si="15"/>
+        <v>2-2014</v>
+      </c>
+      <c r="B170">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="B170">
-        <f>B169</f>
+      <c r="C170">
+        <f>C169</f>
         <v>2014</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+      <c r="D170">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" t="str">
         <f t="shared" si="15"/>
+        <v>3-2014</v>
+      </c>
+      <c r="B171">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="B171">
-        <f t="shared" ref="B171:B180" si="17">B170</f>
+      <c r="C171">
+        <f t="shared" ref="C171:C180" si="20">C170</f>
         <v>2014</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+      <c r="D171">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" t="str">
         <f t="shared" si="15"/>
+        <v>4-2014</v>
+      </c>
+      <c r="B172">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="B172">
-        <f t="shared" si="17"/>
+      <c r="C172">
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+      <c r="D172">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" t="str">
         <f t="shared" si="15"/>
+        <v>5-2014</v>
+      </c>
+      <c r="B173">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="B173">
-        <f t="shared" si="17"/>
+      <c r="C173">
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+      <c r="D173">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" t="str">
         <f t="shared" si="15"/>
+        <v>6-2014</v>
+      </c>
+      <c r="B174">
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="B174">
-        <f t="shared" si="17"/>
+      <c r="C174">
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+      <c r="D174">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" t="str">
         <f t="shared" si="15"/>
+        <v>7-2014</v>
+      </c>
+      <c r="B175">
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
-      <c r="B175">
-        <f t="shared" si="17"/>
+      <c r="C175">
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+      <c r="D175">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" t="str">
         <f t="shared" si="15"/>
+        <v>8-2014</v>
+      </c>
+      <c r="B176">
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="B176">
-        <f t="shared" si="17"/>
+      <c r="C176">
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+      <c r="D176">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" t="str">
         <f t="shared" si="15"/>
+        <v>9-2014</v>
+      </c>
+      <c r="B177">
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
-      <c r="B177">
-        <f t="shared" si="17"/>
+      <c r="C177">
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+      <c r="D177">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" t="str">
         <f t="shared" si="15"/>
+        <v>10-2014</v>
+      </c>
+      <c r="B178">
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="B178">
-        <f t="shared" si="17"/>
+      <c r="C178">
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+      <c r="D178">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" t="str">
         <f t="shared" si="15"/>
+        <v>11-2014</v>
+      </c>
+      <c r="B179">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="B179">
-        <f t="shared" si="17"/>
+      <c r="C179">
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+      <c r="D179">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" t="str">
         <f t="shared" si="15"/>
+        <v>12-2014</v>
+      </c>
+      <c r="B180">
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="B180">
-        <f t="shared" si="17"/>
+      <c r="C180">
+        <f t="shared" si="20"/>
         <v>2014</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+      <c r="D180">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" t="str">
         <f t="shared" si="15"/>
+        <v>1-2015</v>
+      </c>
+      <c r="B181">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="B181">
-        <f>B180+1</f>
+      <c r="C181">
+        <f>C180+1</f>
         <v>2015</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+      <c r="D181">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" t="str">
         <f t="shared" si="15"/>
+        <v>2-2015</v>
+      </c>
+      <c r="B182">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="B182">
-        <f>B181</f>
+      <c r="C182">
+        <f>C181</f>
         <v>2015</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+      <c r="D182">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" t="str">
         <f t="shared" si="15"/>
+        <v>3-2015</v>
+      </c>
+      <c r="B183">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="B183">
-        <f t="shared" ref="B183:B192" si="18">B182</f>
+      <c r="C183">
+        <f t="shared" ref="C183:C192" si="21">C182</f>
         <v>2015</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+      <c r="D183">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" t="str">
         <f t="shared" si="15"/>
-        <v>4</v>
+        <v>4-2015</v>
       </c>
       <c r="B184">
         <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="21"/>
         <v>2015</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+      <c r="D184">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" t="str">
         <f t="shared" si="15"/>
-        <v>5</v>
+        <v>5-2015</v>
       </c>
       <c r="B185">
         <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="21"/>
         <v>2015</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+      <c r="D185">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" t="str">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>6-2015</v>
       </c>
       <c r="B186">
         <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="21"/>
         <v>2015</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+      <c r="D186">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" t="str">
         <f t="shared" si="15"/>
-        <v>7</v>
+        <v>7-2015</v>
       </c>
       <c r="B187">
         <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="21"/>
         <v>2015</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+      <c r="D187">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" t="str">
         <f t="shared" si="15"/>
-        <v>8</v>
+        <v>8-2015</v>
       </c>
       <c r="B188">
         <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="21"/>
         <v>2015</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+      <c r="D188">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" t="str">
         <f t="shared" si="15"/>
-        <v>9</v>
+        <v>9-2015</v>
       </c>
       <c r="B189">
         <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="21"/>
         <v>2015</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+      <c r="D189">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" t="str">
         <f t="shared" si="15"/>
-        <v>10</v>
+        <v>10-2015</v>
       </c>
       <c r="B190">
         <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="21"/>
         <v>2015</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+      <c r="D190">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" t="str">
         <f t="shared" si="15"/>
-        <v>11</v>
+        <v>11-2015</v>
       </c>
       <c r="B191">
         <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="21"/>
         <v>2015</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+      <c r="D191">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" t="str">
         <f t="shared" si="15"/>
-        <v>12</v>
+        <v>12-2015</v>
       </c>
       <c r="B192">
         <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="21"/>
         <v>2015</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+      <c r="D192">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" t="str">
         <f t="shared" si="15"/>
+        <v>1-2016</v>
+      </c>
+      <c r="B193">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="B193">
-        <f>B192+1</f>
+      <c r="C193">
+        <f>C192+1</f>
         <v>2016</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
-        <f t="shared" si="15"/>
+      <c r="D193">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" t="str">
+        <f t="shared" ref="A194:A257" si="22">CONCATENATE(B194,"-",C194)</f>
+        <v>2-2016</v>
+      </c>
+      <c r="B194">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="B194">
-        <f>B193</f>
+      <c r="C194">
+        <f>C193</f>
         <v>2016</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
-        <f t="shared" si="15"/>
+      <c r="D194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="str">
+        <f t="shared" si="22"/>
+        <v>3-2016</v>
+      </c>
+      <c r="B195">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="B195">
-        <f t="shared" ref="B195:B204" si="19">B194</f>
+      <c r="C195">
+        <f t="shared" ref="C195:C204" si="23">C194</f>
         <v>2016</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
-        <f t="shared" si="15"/>
+      <c r="D195">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="str">
+        <f t="shared" si="22"/>
+        <v>4-2016</v>
+      </c>
+      <c r="B196">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="B196">
-        <f t="shared" si="19"/>
+      <c r="C196">
+        <f t="shared" si="23"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
-        <f t="shared" si="15"/>
+      <c r="D196">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="str">
+        <f t="shared" si="22"/>
+        <v>5-2016</v>
+      </c>
+      <c r="B197">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="B197">
-        <f t="shared" si="19"/>
+      <c r="C197">
+        <f t="shared" si="23"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
-        <f t="shared" si="15"/>
+      <c r="D197">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="str">
+        <f t="shared" si="22"/>
+        <v>6-2016</v>
+      </c>
+      <c r="B198">
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="B198">
-        <f t="shared" si="19"/>
+      <c r="C198">
+        <f t="shared" si="23"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
-        <f t="shared" si="15"/>
+      <c r="D198">
+        <v>1.1599999999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="str">
+        <f t="shared" si="22"/>
+        <v>7-2016</v>
+      </c>
+      <c r="B199">
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
-      <c r="B199">
-        <f t="shared" si="19"/>
+      <c r="C199">
+        <f t="shared" si="23"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
-        <f t="shared" si="15"/>
+      <c r="D199">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" t="str">
+        <f t="shared" si="22"/>
+        <v>8-2016</v>
+      </c>
+      <c r="B200">
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="B200">
-        <f t="shared" si="19"/>
+      <c r="C200">
+        <f t="shared" si="23"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
-        <f t="shared" si="15"/>
+      <c r="D200">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="str">
+        <f t="shared" si="22"/>
+        <v>9-2016</v>
+      </c>
+      <c r="B201">
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
-      <c r="B201">
-        <f t="shared" si="19"/>
+      <c r="C201">
+        <f t="shared" si="23"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
-        <f t="shared" si="15"/>
+      <c r="D201">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" t="str">
+        <f t="shared" si="22"/>
+        <v>10-2016</v>
+      </c>
+      <c r="B202">
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="B202">
-        <f t="shared" si="19"/>
+      <c r="C202">
+        <f t="shared" si="23"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
-        <f t="shared" si="15"/>
+      <c r="D202">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" t="str">
+        <f t="shared" si="22"/>
+        <v>11-2016</v>
+      </c>
+      <c r="B203">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="B203">
-        <f t="shared" si="19"/>
+      <c r="C203">
+        <f t="shared" si="23"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
-        <f t="shared" si="15"/>
+      <c r="D203">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" t="str">
+        <f t="shared" si="22"/>
+        <v>12-2016</v>
+      </c>
+      <c r="B204">
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="B204">
-        <f t="shared" si="19"/>
+      <c r="C204">
+        <f t="shared" si="23"/>
         <v>2016</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
-        <f t="shared" si="15"/>
+      <c r="D204">
+        <v>1.1200000000000001</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" t="str">
+        <f t="shared" si="22"/>
+        <v>1-2017</v>
+      </c>
+      <c r="B205">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="B205">
-        <f>B204+1</f>
+      <c r="C205">
+        <f>C204+1</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
-        <f t="shared" si="15"/>
+      <c r="D205">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" t="str">
+        <f t="shared" si="22"/>
+        <v>2-2017</v>
+      </c>
+      <c r="B206">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
-      <c r="B206">
-        <f>B205</f>
+      <c r="C206">
+        <f>C205</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
-        <f t="shared" si="15"/>
+      <c r="D206">
+        <v>0.87</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" t="str">
+        <f t="shared" si="22"/>
+        <v>3-2017</v>
+      </c>
+      <c r="B207">
+        <f t="shared" si="18"/>
         <v>3</v>
       </c>
-      <c r="B207">
-        <f t="shared" ref="B207:B216" si="20">B206</f>
+      <c r="C207">
+        <f t="shared" ref="C207:C216" si="24">C206</f>
         <v>2017</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
-        <f t="shared" si="15"/>
+      <c r="D207">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" t="str">
+        <f t="shared" si="22"/>
+        <v>4-2017</v>
+      </c>
+      <c r="B208">
+        <f t="shared" si="18"/>
         <v>4</v>
       </c>
-      <c r="B208">
-        <f t="shared" si="20"/>
+      <c r="C208">
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
-        <f t="shared" si="15"/>
+      <c r="D208">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" t="str">
+        <f t="shared" si="22"/>
+        <v>5-2017</v>
+      </c>
+      <c r="B209">
+        <f t="shared" si="18"/>
         <v>5</v>
       </c>
-      <c r="B209">
-        <f t="shared" si="20"/>
+      <c r="C209">
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
-        <f t="shared" si="15"/>
+      <c r="D209">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" t="str">
+        <f t="shared" si="22"/>
+        <v>6-2017</v>
+      </c>
+      <c r="B210">
+        <f t="shared" si="18"/>
         <v>6</v>
       </c>
-      <c r="B210">
-        <f t="shared" si="20"/>
+      <c r="C210">
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
-        <f t="shared" si="15"/>
+      <c r="D210">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" t="str">
+        <f t="shared" si="22"/>
+        <v>7-2017</v>
+      </c>
+      <c r="B211">
+        <f t="shared" si="18"/>
         <v>7</v>
       </c>
-      <c r="B211">
-        <f t="shared" si="20"/>
+      <c r="C211">
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
-        <f t="shared" si="15"/>
+      <c r="D211">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" t="str">
+        <f t="shared" si="22"/>
+        <v>8-2017</v>
+      </c>
+      <c r="B212">
+        <f t="shared" si="18"/>
         <v>8</v>
       </c>
-      <c r="B212">
-        <f t="shared" si="20"/>
+      <c r="C212">
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
-        <f t="shared" si="15"/>
+      <c r="D212">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A213" t="str">
+        <f t="shared" si="22"/>
+        <v>9-2017</v>
+      </c>
+      <c r="B213">
+        <f t="shared" si="18"/>
         <v>9</v>
       </c>
-      <c r="B213">
-        <f t="shared" si="20"/>
+      <c r="C213">
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
-        <f t="shared" si="15"/>
+      <c r="D213">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A214" t="str">
+        <f t="shared" si="22"/>
+        <v>10-2017</v>
+      </c>
+      <c r="B214">
+        <f t="shared" si="18"/>
         <v>10</v>
       </c>
-      <c r="B214">
-        <f t="shared" si="20"/>
+      <c r="C214">
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
-        <f t="shared" si="15"/>
+      <c r="D214">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A215" t="str">
+        <f t="shared" si="22"/>
+        <v>11-2017</v>
+      </c>
+      <c r="B215">
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
-      <c r="B215">
-        <f t="shared" si="20"/>
+      <c r="C215">
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
-        <f t="shared" si="15"/>
+      <c r="D215">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A216" t="str">
+        <f t="shared" si="22"/>
+        <v>12-2017</v>
+      </c>
+      <c r="B216">
+        <f t="shared" si="18"/>
         <v>12</v>
       </c>
-      <c r="B216">
-        <f t="shared" si="20"/>
+      <c r="C216">
+        <f t="shared" si="24"/>
         <v>2017</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
-        <f t="shared" si="15"/>
+      <c r="D216">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A217" t="str">
+        <f t="shared" si="22"/>
+        <v>1-2018</v>
+      </c>
+      <c r="B217">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
-      <c r="B217">
-        <f>B216+1</f>
+      <c r="C217">
+        <f>C216+1</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
-        <f t="shared" ref="A218:A281" si="21">A206</f>
+      <c r="D217">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A218" t="str">
+        <f t="shared" si="22"/>
+        <v>2-2018</v>
+      </c>
+      <c r="B218">
+        <f t="shared" ref="B218:B276" si="25">B206</f>
         <v>2</v>
       </c>
-      <c r="B218">
-        <f>B217</f>
+      <c r="C218">
+        <f>C217</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
-        <f t="shared" si="21"/>
+      <c r="D218">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A219" t="str">
+        <f t="shared" si="22"/>
+        <v>3-2018</v>
+      </c>
+      <c r="B219">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="B219">
-        <f t="shared" ref="B219:B228" si="22">B218</f>
+      <c r="C219">
+        <f t="shared" ref="C219:C228" si="26">C218</f>
         <v>2018</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
-        <f t="shared" si="21"/>
+      <c r="D219">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A220" t="str">
+        <f t="shared" si="22"/>
+        <v>4-2018</v>
+      </c>
+      <c r="B220">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="B220">
+      <c r="C220">
+        <f t="shared" si="26"/>
+        <v>2018</v>
+      </c>
+      <c r="D220">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" t="str">
         <f t="shared" si="22"/>
+        <v>5-2018</v>
+      </c>
+      <c r="B221">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="26"/>
         <v>2018</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
-        <f t="shared" si="21"/>
+      <c r="D221">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" t="str">
+        <f t="shared" si="22"/>
+        <v>6-2018</v>
+      </c>
+      <c r="B222">
+        <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="26"/>
+        <v>2018</v>
+      </c>
+      <c r="D222">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" t="str">
+        <f t="shared" si="22"/>
+        <v>7-2018</v>
+      </c>
+      <c r="B223">
+        <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="26"/>
+        <v>2018</v>
+      </c>
+      <c r="D223">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A224" t="str">
+        <f t="shared" si="22"/>
+        <v>8-2018</v>
+      </c>
+      <c r="B224">
+        <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="26"/>
+        <v>2018</v>
+      </c>
+      <c r="D224">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A225" t="str">
+        <f t="shared" si="22"/>
+        <v>9-2018</v>
+      </c>
+      <c r="B225">
+        <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="26"/>
+        <v>2018</v>
+      </c>
+      <c r="D225">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A226" t="str">
+        <f t="shared" si="22"/>
+        <v>10-2018</v>
+      </c>
+      <c r="B226">
+        <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="26"/>
+        <v>2018</v>
+      </c>
+      <c r="D226">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A227" t="str">
+        <f t="shared" si="22"/>
+        <v>11-2018</v>
+      </c>
+      <c r="B227">
+        <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="26"/>
+        <v>2018</v>
+      </c>
+      <c r="D227">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A228" t="str">
+        <f t="shared" si="22"/>
+        <v>12-2018</v>
+      </c>
+      <c r="B228">
+        <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="26"/>
+        <v>2018</v>
+      </c>
+      <c r="D228">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A229" t="str">
+        <f t="shared" si="22"/>
+        <v>1-2019</v>
+      </c>
+      <c r="B229">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="C229">
+        <f>C228+1</f>
+        <v>2019</v>
+      </c>
+      <c r="D229">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A230" t="str">
+        <f t="shared" si="22"/>
+        <v>2-2019</v>
+      </c>
+      <c r="B230">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <f>C229</f>
+        <v>2019</v>
+      </c>
+      <c r="D230">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A231" t="str">
+        <f t="shared" si="22"/>
+        <v>3-2019</v>
+      </c>
+      <c r="B231">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="C231">
+        <f t="shared" ref="C231:C240" si="27">C230</f>
+        <v>2019</v>
+      </c>
+      <c r="D231">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A232" t="str">
+        <f t="shared" si="22"/>
+        <v>4-2019</v>
+      </c>
+      <c r="B232">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="27"/>
+        <v>2019</v>
+      </c>
+      <c r="D232">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A233" t="str">
+        <f t="shared" si="22"/>
+        <v>5-2019</v>
+      </c>
+      <c r="B233">
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="B221">
+      <c r="C233">
+        <f t="shared" si="27"/>
+        <v>2019</v>
+      </c>
+      <c r="D233">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A234" t="str">
         <f t="shared" si="22"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
-        <f t="shared" si="21"/>
+        <v>6-2019</v>
+      </c>
+      <c r="B234">
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="B222">
+      <c r="C234">
+        <f t="shared" si="27"/>
+        <v>2019</v>
+      </c>
+      <c r="D234">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A235" t="str">
         <f t="shared" si="22"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
-        <f t="shared" si="21"/>
+        <v>7-2019</v>
+      </c>
+      <c r="B235">
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="B223">
+      <c r="C235">
+        <f t="shared" si="27"/>
+        <v>2019</v>
+      </c>
+      <c r="D235">
+        <v>0.56999999999999995</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="str">
         <f t="shared" si="22"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
-        <f t="shared" si="21"/>
+        <v>8-2019</v>
+      </c>
+      <c r="B236">
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="B224">
+      <c r="C236">
+        <f t="shared" si="27"/>
+        <v>2019</v>
+      </c>
+      <c r="D236">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="str">
         <f t="shared" si="22"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
-        <f t="shared" si="21"/>
+        <v>9-2019</v>
+      </c>
+      <c r="B237">
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="B225">
+      <c r="C237">
+        <f t="shared" si="27"/>
+        <v>2019</v>
+      </c>
+      <c r="D237">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="str">
         <f t="shared" si="22"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
-        <f t="shared" si="21"/>
+        <v>10-2019</v>
+      </c>
+      <c r="B238">
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
-      <c r="B226">
+      <c r="C238">
+        <f t="shared" si="27"/>
+        <v>2019</v>
+      </c>
+      <c r="D238">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="str">
         <f t="shared" si="22"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
-        <f t="shared" si="21"/>
+        <v>11-2019</v>
+      </c>
+      <c r="B239">
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
-      <c r="B227">
+      <c r="C239">
+        <f t="shared" si="27"/>
+        <v>2019</v>
+      </c>
+      <c r="D239">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="str">
         <f t="shared" si="22"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
-        <f t="shared" si="21"/>
+        <v>12-2019</v>
+      </c>
+      <c r="B240">
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="B228">
+      <c r="C240">
+        <f t="shared" si="27"/>
+        <v>2019</v>
+      </c>
+      <c r="D240">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="str">
         <f t="shared" si="22"/>
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
-        <f t="shared" si="21"/>
+        <v>1-2020</v>
+      </c>
+      <c r="B241">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="B229">
-        <f>B228+1</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
-        <f t="shared" si="21"/>
+      <c r="C241">
+        <f>C240+1</f>
+        <v>2020</v>
+      </c>
+      <c r="D241">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A242" t="str">
+        <f t="shared" si="22"/>
+        <v>2-2020</v>
+      </c>
+      <c r="B242">
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="B230">
-        <f>B229</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
-        <f t="shared" si="21"/>
+      <c r="C242">
+        <f>C241</f>
+        <v>2020</v>
+      </c>
+      <c r="D242">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="str">
+        <f t="shared" si="22"/>
+        <v>3-2020</v>
+      </c>
+      <c r="B243">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="B231">
-        <f t="shared" ref="B231:B240" si="23">B230</f>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
-        <f t="shared" si="21"/>
+      <c r="C243">
+        <f t="shared" ref="C243:C252" si="28">C242</f>
+        <v>2020</v>
+      </c>
+      <c r="D243">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="str">
+        <f t="shared" si="22"/>
+        <v>4-2020</v>
+      </c>
+      <c r="B244">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="B232">
-        <f t="shared" si="23"/>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
-        <f t="shared" si="21"/>
+      <c r="C244">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="D244">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="str">
+        <f t="shared" si="22"/>
+        <v>5-2020</v>
+      </c>
+      <c r="B245">
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="B233">
-        <f t="shared" si="23"/>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
-        <f t="shared" si="21"/>
+      <c r="C245">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="D245">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="str">
+        <f t="shared" si="22"/>
+        <v>6-2020</v>
+      </c>
+      <c r="B246">
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="B234">
-        <f t="shared" si="23"/>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
-        <f t="shared" si="21"/>
+      <c r="C246">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="D246">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A247" t="str">
+        <f t="shared" si="22"/>
+        <v>7-2020</v>
+      </c>
+      <c r="B247">
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="B235">
-        <f t="shared" si="23"/>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
-        <f t="shared" si="21"/>
+      <c r="C247">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="D247">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A248" t="str">
+        <f t="shared" si="22"/>
+        <v>8-2020</v>
+      </c>
+      <c r="B248">
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="B236">
-        <f t="shared" si="23"/>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
-        <f t="shared" si="21"/>
+      <c r="C248">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="D248">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A249" t="str">
+        <f t="shared" si="22"/>
+        <v>9-2020</v>
+      </c>
+      <c r="B249">
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="B237">
-        <f t="shared" si="23"/>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
-        <f t="shared" si="21"/>
+      <c r="C249">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="D249">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A250" t="str">
+        <f t="shared" si="22"/>
+        <v>10-2020</v>
+      </c>
+      <c r="B250">
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
-      <c r="B238">
-        <f t="shared" si="23"/>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
-        <f t="shared" si="21"/>
+      <c r="C250">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="D250">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A251" t="str">
+        <f t="shared" si="22"/>
+        <v>11-2020</v>
+      </c>
+      <c r="B251">
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
-      <c r="B239">
-        <f t="shared" si="23"/>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
-        <f t="shared" si="21"/>
+      <c r="C251">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="D251">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A252" t="str">
+        <f t="shared" si="22"/>
+        <v>12-2020</v>
+      </c>
+      <c r="B252">
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
-      <c r="B240">
-        <f t="shared" si="23"/>
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
-        <f t="shared" si="21"/>
+      <c r="C252">
+        <f t="shared" si="28"/>
+        <v>2020</v>
+      </c>
+      <c r="D252">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A253" t="str">
+        <f t="shared" si="22"/>
+        <v>1-2021</v>
+      </c>
+      <c r="B253">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="B241">
-        <f>B240+1</f>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
-        <f t="shared" si="21"/>
+      <c r="C253">
+        <f>C252+1</f>
+        <v>2021</v>
+      </c>
+      <c r="D253">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A254" t="str">
+        <f t="shared" si="22"/>
+        <v>2-2021</v>
+      </c>
+      <c r="B254">
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="B242">
-        <f>B241</f>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
-        <f t="shared" si="21"/>
+      <c r="C254">
+        <f>C253</f>
+        <v>2021</v>
+      </c>
+      <c r="D254">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A255" t="str">
+        <f t="shared" si="22"/>
+        <v>3-2021</v>
+      </c>
+      <c r="B255">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="B243">
-        <f t="shared" ref="B243:B252" si="24">B242</f>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
-        <f t="shared" si="21"/>
-        <v>4</v>
-      </c>
-      <c r="B244">
-        <f t="shared" si="24"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
-        <f t="shared" si="21"/>
-        <v>5</v>
-      </c>
-      <c r="B245">
-        <f t="shared" si="24"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
-        <f t="shared" si="21"/>
-        <v>6</v>
-      </c>
-      <c r="B246">
-        <f t="shared" si="24"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
-        <f t="shared" si="21"/>
-        <v>7</v>
-      </c>
-      <c r="B247">
-        <f t="shared" si="24"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
-        <f t="shared" si="21"/>
-        <v>8</v>
-      </c>
-      <c r="B248">
-        <f t="shared" si="24"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
-        <f t="shared" si="21"/>
-        <v>9</v>
-      </c>
-      <c r="B249">
-        <f t="shared" si="24"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="B250">
-        <f t="shared" si="24"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="B251">
-        <f t="shared" si="24"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
-        <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="B252">
-        <f t="shared" si="24"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="B253">
-        <f>B252+1</f>
+      <c r="C255">
+        <f t="shared" ref="C255:C264" si="29">C254</f>
         <v>2021</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
-        <f t="shared" si="21"/>
-        <v>2</v>
-      </c>
-      <c r="B254">
-        <f>B253</f>
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
-        <f t="shared" si="21"/>
-        <v>3</v>
-      </c>
-      <c r="B255">
-        <f t="shared" ref="B255:B264" si="25">B254</f>
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
-        <f t="shared" si="21"/>
-        <v>4</v>
+      <c r="D255">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A256" t="str">
+        <f t="shared" si="22"/>
+        <v>4-2021</v>
       </c>
       <c r="B256">
         <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="29"/>
         <v>2021</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
-        <f t="shared" si="21"/>
-        <v>5</v>
+      <c r="D256">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A257" t="str">
+        <f t="shared" si="22"/>
+        <v>5-2021</v>
       </c>
       <c r="B257">
         <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="29"/>
         <v>2021</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
-        <f t="shared" si="21"/>
-        <v>6</v>
+      <c r="D257">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A258" t="str">
+        <f t="shared" ref="A258:A273" si="30">CONCATENATE(B258,"-",C258)</f>
+        <v>6-2021</v>
       </c>
       <c r="B258">
         <f t="shared" si="25"/>
+        <v>6</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="29"/>
         <v>2021</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
-        <f t="shared" si="21"/>
-        <v>7</v>
+      <c r="D258">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A259" t="str">
+        <f t="shared" si="30"/>
+        <v>7-2021</v>
       </c>
       <c r="B259">
         <f t="shared" si="25"/>
+        <v>7</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="29"/>
         <v>2021</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
-        <f t="shared" si="21"/>
-        <v>8</v>
+      <c r="D259">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A260" t="str">
+        <f t="shared" si="30"/>
+        <v>8-2021</v>
       </c>
       <c r="B260">
         <f t="shared" si="25"/>
+        <v>8</v>
+      </c>
+      <c r="C260">
+        <f t="shared" si="29"/>
         <v>2021</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
-        <f t="shared" si="21"/>
-        <v>9</v>
+      <c r="D260">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A261" t="str">
+        <f t="shared" si="30"/>
+        <v>9-2021</v>
       </c>
       <c r="B261">
         <f t="shared" si="25"/>
+        <v>9</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="29"/>
         <v>2021</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
-        <f t="shared" si="21"/>
-        <v>10</v>
+      <c r="D261">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A262" t="str">
+        <f t="shared" si="30"/>
+        <v>10-2021</v>
       </c>
       <c r="B262">
         <f t="shared" si="25"/>
+        <v>10</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="29"/>
         <v>2021</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
-        <f t="shared" si="21"/>
-        <v>11</v>
+      <c r="D262">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A263" t="str">
+        <f t="shared" si="30"/>
+        <v>11-2021</v>
       </c>
       <c r="B263">
         <f t="shared" si="25"/>
+        <v>11</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="29"/>
         <v>2021</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
-        <f t="shared" si="21"/>
-        <v>12</v>
+      <c r="D263">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A264" t="str">
+        <f t="shared" si="30"/>
+        <v>12-2021</v>
       </c>
       <c r="B264">
         <f t="shared" si="25"/>
+        <v>12</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="29"/>
         <v>2021</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
-        <f t="shared" si="21"/>
+      <c r="D264">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A265" t="str">
+        <f t="shared" si="30"/>
+        <v>1-2022</v>
+      </c>
+      <c r="B265">
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
-      <c r="B265">
-        <f>B264+1</f>
+      <c r="C265">
+        <f>C264+1</f>
         <v>2022</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
-        <f t="shared" si="21"/>
+      <c r="D265">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A266" t="str">
+        <f t="shared" si="30"/>
+        <v>2-2022</v>
+      </c>
+      <c r="B266">
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
-      <c r="B266">
-        <f>B265</f>
+      <c r="C266">
+        <f>C265</f>
         <v>2022</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
-        <f t="shared" si="21"/>
+      <c r="D266">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A267" t="str">
+        <f t="shared" si="30"/>
+        <v>3-2022</v>
+      </c>
+      <c r="B267">
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
-      <c r="B267">
-        <f t="shared" ref="B267:B276" si="26">B266</f>
+      <c r="C267">
+        <f t="shared" ref="C267:C276" si="31">C266</f>
         <v>2022</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
-        <f t="shared" si="21"/>
+      <c r="D267">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A268" t="str">
+        <f t="shared" si="30"/>
+        <v>4-2022</v>
+      </c>
+      <c r="B268">
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
-      <c r="B268">
-        <f t="shared" si="26"/>
+      <c r="C268">
+        <f t="shared" si="31"/>
         <v>2022</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
-        <f t="shared" si="21"/>
+      <c r="D268">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A269" t="str">
+        <f t="shared" si="30"/>
+        <v>5-2022</v>
+      </c>
+      <c r="B269">
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
-      <c r="B269">
-        <f t="shared" si="26"/>
+      <c r="C269">
+        <f t="shared" si="31"/>
         <v>2022</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
-        <f t="shared" si="21"/>
+      <c r="D269">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A270" t="str">
+        <f t="shared" si="30"/>
+        <v>6-2022</v>
+      </c>
+      <c r="B270">
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
-      <c r="B270">
-        <f t="shared" si="26"/>
+      <c r="C270">
+        <f t="shared" si="31"/>
         <v>2022</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
-        <f t="shared" si="21"/>
+      <c r="D270">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A271" t="str">
+        <f t="shared" si="30"/>
+        <v>7-2022</v>
+      </c>
+      <c r="B271">
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
-      <c r="B271">
-        <f t="shared" si="26"/>
+      <c r="C271">
+        <f t="shared" si="31"/>
         <v>2022</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
-        <f t="shared" si="21"/>
+      <c r="D271">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A272" t="str">
+        <f t="shared" si="30"/>
+        <v>8-2022</v>
+      </c>
+      <c r="B272">
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
-      <c r="B272">
-        <f t="shared" si="26"/>
+      <c r="C272">
+        <f t="shared" si="31"/>
         <v>2022</v>
       </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
-        <f t="shared" si="21"/>
+      <c r="D272">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A273" t="str">
+        <f t="shared" si="30"/>
+        <v>9-2022</v>
+      </c>
+      <c r="B273">
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
-      <c r="B273">
-        <f t="shared" si="26"/>
+      <c r="C273">
+        <f t="shared" si="31"/>
         <v>2022</v>
       </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
-        <f t="shared" si="21"/>
-        <v>10</v>
-      </c>
-      <c r="B274">
-        <f t="shared" si="26"/>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
-        <f t="shared" si="21"/>
-        <v>11</v>
-      </c>
-      <c r="B275">
-        <f t="shared" si="26"/>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
-        <f t="shared" si="21"/>
-        <v>12</v>
-      </c>
-      <c r="B276">
-        <f t="shared" si="26"/>
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1"/>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1"/>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1"/>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1"/>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1"/>
+      <c r="D273">
+        <v>1.07</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
